--- a/2020/September/Others/MC Retail wise Terget_September-2020.xlsx
+++ b/2020/September/Others/MC Retail wise Terget_September-2020.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" tabRatio="503" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" tabRatio="503" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="National Summary" sheetId="9" state="hidden" r:id="rId1"/>
     <sheet name="Back Margin Modality" sheetId="13" r:id="rId2"/>
     <sheet name="Focus Retail-FP" sheetId="10" r:id="rId3"/>
     <sheet name="Focus Retail-SP" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Focus Retail-FP'!$A$4:$M$114</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="289">
   <si>
     <t>Dealer ID</t>
   </si>
@@ -900,6 +901,12 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;=20K - &lt;50K </t>
+  </si>
+  <si>
+    <t>Signboard</t>
+  </si>
+  <si>
+    <t>Counter Table</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1210,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1353,13 +1360,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6504,34 +6527,34 @@
   </sheetData>
   <autoFilter ref="A4:M114"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="17" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4">
-    <cfRule type="duplicateValues" dxfId="16" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="15" priority="2186"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="duplicateValues" dxfId="14" priority="2203"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:D114 D86:D97">
-    <cfRule type="duplicateValues" dxfId="13" priority="2289"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2289"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98:D108">
-    <cfRule type="duplicateValues" dxfId="12" priority="2331"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2331"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D83">
-    <cfRule type="duplicateValues" dxfId="11" priority="2594"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2594"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D60">
-    <cfRule type="duplicateValues" dxfId="10" priority="2613"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2613"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D57">
-    <cfRule type="duplicateValues" dxfId="9" priority="2633"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2633"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D114">
-    <cfRule type="duplicateValues" dxfId="8" priority="2636"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2636"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6543,11 +6566,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="K33" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -8846,30 +8869,688 @@
   </sheetData>
   <autoFilter ref="A4:M63"/>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="7" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4">
-    <cfRule type="duplicateValues" dxfId="6" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="duplicateValues" dxfId="5" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="duplicateValues" dxfId="4" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D57">
-    <cfRule type="duplicateValues" dxfId="3" priority="2662"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2662"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D63">
-    <cfRule type="duplicateValues" dxfId="2" priority="2708"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2708"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D32">
-    <cfRule type="duplicateValues" dxfId="1" priority="2710"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2710"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D63">
-    <cfRule type="duplicateValues" dxfId="0" priority="2711"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2711"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I11:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="61"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" s="61"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2020/September/Others/MC Retail wise Terget_September-2020.xlsx
+++ b/2020/September/Others/MC Retail wise Terget_September-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" tabRatio="503" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" tabRatio="503" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="National Summary" sheetId="9" state="hidden" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1345,19 +1345,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1365,6 +1353,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2092,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="13.5"/>
@@ -2109,16 +2112,16 @@
     </row>
     <row r="3" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:5" ht="27.75" thickBot="1">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="59" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2231,26 +2234,26 @@
     </row>
     <row r="15" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="16" spans="2:5">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="61" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="2:5" ht="14.25" thickBot="1">
       <c r="B18" s="53" t="s">
@@ -2327,7 +2330,7 @@
         <v>277</v>
       </c>
       <c r="C23" s="53"/>
-      <c r="D23" s="58">
+      <c r="D23" s="56">
         <v>0.01</v>
       </c>
       <c r="E23" s="54">
@@ -8901,7 +8904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
@@ -8915,19 +8918,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="58" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8935,16 +8938,16 @@
       <c r="A2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8952,16 +8955,16 @@
       <c r="A3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8969,16 +8972,16 @@
       <c r="A4" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8986,16 +8989,16 @@
       <c r="A5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9003,31 +9006,31 @@
       <c r="A6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="57"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9035,14 +9038,14 @@
       <c r="A8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9050,16 +9053,16 @@
       <c r="A9" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9067,16 +9070,16 @@
       <c r="A10" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9084,16 +9087,16 @@
       <c r="A11" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9101,14 +9104,14 @@
       <c r="A12" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9116,14 +9119,14 @@
       <c r="A13" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9131,16 +9134,16 @@
       <c r="A14" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9148,16 +9151,16 @@
       <c r="A15" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9165,16 +9168,16 @@
       <c r="A16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9182,14 +9185,14 @@
       <c r="A17" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9197,16 +9200,16 @@
       <c r="A18" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9214,16 +9217,16 @@
       <c r="A19" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9231,16 +9234,16 @@
       <c r="A20" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9248,14 +9251,14 @@
       <c r="A21" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9263,14 +9266,14 @@
       <c r="A22" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9278,14 +9281,14 @@
       <c r="A23" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9293,14 +9296,14 @@
       <c r="A24" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61" t="s">
+      <c r="D24" s="57"/>
+      <c r="E24" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9308,16 +9311,16 @@
       <c r="A25" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9325,14 +9328,14 @@
       <c r="A26" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9340,16 +9343,16 @@
       <c r="A27" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9357,14 +9360,14 @@
       <c r="A28" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61" t="s">
+      <c r="D28" s="57"/>
+      <c r="E28" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9372,14 +9375,14 @@
       <c r="A29" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9387,16 +9390,16 @@
       <c r="A30" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9404,14 +9407,14 @@
       <c r="A31" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9419,16 +9422,16 @@
       <c r="A32" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9436,16 +9439,16 @@
       <c r="A33" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9453,14 +9456,14 @@
       <c r="A34" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61" t="s">
+      <c r="D34" s="57"/>
+      <c r="E34" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9468,16 +9471,16 @@
       <c r="A35" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9485,16 +9488,16 @@
       <c r="A36" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9502,16 +9505,16 @@
       <c r="A37" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9519,16 +9522,16 @@
       <c r="A38" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="57" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9536,16 +9539,16 @@
       <c r="A39" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E39" s="61"/>
+      <c r="E39" s="57"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
